--- a/Testing/Testdokumente/Kathi/systemtest_19_6_18.xlsx
+++ b/Testing/Testdokumente/Kathi/systemtest_19_6_18.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\AI\AI6\Projekt\Documentation\Testing\Testdokumente\Kathi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,76 +26,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="150">
   <si>
-    <t xml:space="preserve">Nr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use-Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verhalten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erwartetes Ergebnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatsächliches Ergebnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmeldung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einloggen als Moderator oder Wahlleiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Öffnen der Software -&gt; Eingabe der Login-Daten -&gt; Button "Anmelden" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfolgreicher Login und anzeigen der Startseite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kein Scrollbalken, fiel mir erst beim 2. Mal anmelden auf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einloggen schlägt fehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Öffnen der Software -&gt; Eingabe der falschen Login-Daten -&gt; Button "Anmelden" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login schlägt fehl und Fehlermeldung wird angezeigt. "Falsche Login-Daten"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wie erwartet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einloggen als Wähler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Öffnen der Software -&gt; Login-Daten eingeben -&gt; RFID-Tag einlesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Öffnen der Software -&gt; Falsche Login-Daten eingeben -&gt; RFID-Tag einlesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login schlägt fehl und Fehlermeldung wird angezeigt. "Falsche Login Daten"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl/Gemeinderatswahl anlegen (Moderator/Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl/Gemeinderatswahl anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderator: Wahl wurde angelegt, nun muss sie vom Wahlleiter freigegeben werden.                                                                                                                                               Wahlleiter: Wahl wurde angelegt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlleiter: Kein Balken zum Scrollen vorhanden, auch Pfeiltasten helfen nicht. Mit Tabulator gelangt man in den unteren Teil der Seite, wenn man zuvor in weitere Infos zur Wahl geklickt hat. Allerdings gelangt man dann nicht mehr hoch, um bspw. Etwas zu ändern. Es konnte keine Datei ausgewählt werde, Button unabled, durchgestrichener Kreis, allerdings lies sich die Wahl anlegen, wenn nur start und enddatum ausgewählt waren. Diese wurde in der Übersicht auch angzeigt mit id 9. Wahl wieder gelöscht. Moderator: Keine Anlegen einer Wahl möglich, es erscheint eine leere Übersicht</t>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Use-Case</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Verhalten</t>
+  </si>
+  <si>
+    <t>Erwartetes Ergebnis</t>
+  </si>
+  <si>
+    <t>Tatsächliches Ergebnis</t>
+  </si>
+  <si>
+    <t>Anmeldung</t>
+  </si>
+  <si>
+    <t>Einloggen als Moderator oder Wahlleiter</t>
+  </si>
+  <si>
+    <t>Öffnen der Software -&gt; Eingabe der Login-Daten -&gt; Button "Anmelden" anklicken</t>
+  </si>
+  <si>
+    <t>Erfolgreicher Login und anzeigen der Startseite.</t>
+  </si>
+  <si>
+    <t>kein Scrollbalken, fiel mir erst beim 2. Mal anmelden auf.</t>
+  </si>
+  <si>
+    <t>Einloggen schlägt fehl</t>
+  </si>
+  <si>
+    <t>Öffnen der Software -&gt; Eingabe der falschen Login-Daten -&gt; Button "Anmelden" anklicken</t>
+  </si>
+  <si>
+    <t>Login schlägt fehl und Fehlermeldung wird angezeigt. "Falsche Login-Daten"</t>
+  </si>
+  <si>
+    <t>wie erwartet</t>
+  </si>
+  <si>
+    <t>Einloggen als Wähler</t>
+  </si>
+  <si>
+    <t>Öffnen der Software -&gt; Login-Daten eingeben -&gt; RFID-Tag einlesen</t>
+  </si>
+  <si>
+    <t>Öffnen der Software -&gt; Falsche Login-Daten eingeben -&gt; RFID-Tag einlesen</t>
+  </si>
+  <si>
+    <t>Login schlägt fehl und Fehlermeldung wird angezeigt. "Falsche Login Daten"</t>
+  </si>
+  <si>
+    <t>Bundestagswahl/Gemeinderatswahl anlegen (Moderator/Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Bundestagswahl/Gemeinderatswahl anlegen</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Moderator: Wahl wurde angelegt, nun muss sie vom Wahlleiter freigegeben werden.                                                                                                                                               Wahlleiter: Wahl wurde angelegt.</t>
+  </si>
+  <si>
+    <t>Wahlleiter: Kein Balken zum Scrollen vorhanden, auch Pfeiltasten helfen nicht. Mit Tabulator gelangt man in den unteren Teil der Seite, wenn man zuvor in weitere Infos zur Wahl geklickt hat. Allerdings gelangt man dann nicht mehr hoch, um bspw. Etwas zu ändern. Es konnte keine Datei ausgewählt werde, Button unabled, durchgestrichener Kreis, allerdings lies sich die Wahl anlegen, wenn nur start und enddatum ausgewählt waren. Diese wurde in der Übersicht auch angzeigt mit id 9. Wahl wieder gelöscht. Moderator: Keine Anlegen einer Wahl möglich, es erscheint eine leere Übersicht</t>
   </si>
   <si>
     <r>
@@ -122,36 +126,36 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">aber die Listenauswahl wird schön angepasst an den Wahltyp.</t>
+      <t>aber die Listenauswahl wird schön angepasst an den Wahltyp.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Unerwartetes Verhalten: Abmelden als Wahlleiter von Wahlübersichtseite führt zu  → Anmeldeseite des Wählers (url: http://yourchoice.local/wähler/anmelden).Logischerweise scheitert der versuch sich jetzt als moderator anzumelden. Erst wieder auf MitarbeiterEcke klicken müssen. http://yourchoice.local/mitarbeiter/anmelden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl/Gemeinderatswahl anlegen abbrechen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Abbrechen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl anlegen wurde abgebrochen. Zurück zur Startseite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlleiter: Wahltyp ist Bundestagswahl. Wieder nur mit Tab erreichbar, also der untere teil der Seite.Mit Verkleineren der Seite via STRG. Mausrad kann die ganze Seite angezeigt werden. Es gibt nur einen weiter-Button. Listen können so nicht importiert werden.
+    <t>Unerwartetes Verhalten: Abmelden als Wahlleiter von Wahlübersichtseite führt zu  → Anmeldeseite des Wählers (url: http://yourchoice.local/wähler/anmelden).Logischerweise scheitert der versuch sich jetzt als moderator anzumelden. Erst wieder auf MitarbeiterEcke klicken müssen. http://yourchoice.local/mitarbeiter/anmelden</t>
+  </si>
+  <si>
+    <t>Bundestagswahl/Gemeinderatswahl anlegen abbrechen</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Abbrechen" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen wurde abgebrochen. Zurück zur Startseite.</t>
+  </si>
+  <si>
+    <t>Wahlleiter: Wahltyp ist Bundestagswahl. Wieder nur mit Tab erreichbar, also der untere teil der Seite.Mit Verkleineren der Seite via STRG. Mausrad kann die ganze Seite angezeigt werden. Es gibt nur einen weiter-Button. Listen können so nicht importiert werden.
 Klicken auf Weiter: → Meldung: Wahl erfolgreich angelegt erscheint. Immer noch kein Abbrechen-Button. Listen importieren. Immer noch kein Abbrechen-Button vorhanden.  Speichern ist möglich, id in Übersicht ist 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Moderator: kein Anlegen einer Wahl möglich, leere Übersichtseite „ Aktuell keine Wahlen verfügbar“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl/Gemeinderatswahl anlegen schlägt fehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien wird nicht importiert -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Parteien wurde nicht importiert".</t>
+    <t>Moderator: kein Anlegen einer Wahl möglich, leere Übersichtseite „ Aktuell keine Wahlen verfügbar“</t>
+  </si>
+  <si>
+    <t>Bundestagswahl/Gemeinderatswahl anlegen schlägt fehl</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien wird nicht importiert -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Parteien wurde nicht importiert".</t>
   </si>
   <si>
     <t xml:space="preserve">Wahlleiter: Bundestagswahl:
@@ -162,383 +166,365 @@
     <t xml:space="preserve">Ohne Abmelden, also in der gleichen Sitzung kann nur eine Wahl erstellt werden. </t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Kandidaten wurde nicht importiert".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahlleiter: landtagswahl: Wie oben in F9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unerwartetes Verhalten:s. H7
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Kandidaten wurde nicht importiert".</t>
+  </si>
+  <si>
+    <t>Wahlleiter: landtagswahl: Wie oben in F9</t>
+  </si>
+  <si>
+    <t>Unerwartetes Verhalten:s. H7
 Abmleden über Wahlleiter abmelden Button von Wahl erstellen Seite führt zu http://yourchoice.local/mitarbeiter/anmelden. Erneutes anmelden als Wahlleiter, jetzt keine Möglichkeit eine Wahl zu erstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Wähler wurde nicht importiert".</t>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Wähler wurde nicht importiert".</t>
   </si>
   <si>
     <t xml:space="preserve">Wahl muss angelegt werden, bevor Dateien importiert werden können. Aber dann werden beim erneuten Speichern fehlende Listen angezeigt und es kann nicht erneurt gespeichert werden. </t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Falsche Daten eingegeben".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falsche Daten: nur falsches Datum möglich, dies kann falsch eingegeben werden. In der Vergangenheit, Wahl kann Jahre dauern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl freigeben (Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl wird freigegeben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl auswählen, die noch nicht freigegeben wurde -&gt; Button "Bearbeiten" anklicken -&gt; Button "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl ist freigegeben und ist somit ab dem entsprechenden Datum für die Wähler zugänglich. Es können weitere Wahlen freigegeben/gelöscht werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderator kann keine Wahlen erstellen, vom Wahlleiter erstellte Wahlen sind automatisch freigegeben, und im System gibt es keine nicht freigegebenen Wahlen 
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bundestagswahl/Gemeinderatswahl -&gt; Liste der Parteien importieren -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Falsche Daten eingegeben".</t>
+  </si>
+  <si>
+    <t>Falsche Daten: nur falsches Datum möglich, dies kann falsch eingegeben werden. In der Vergangenheit, Wahl kann Jahre dauern.</t>
+  </si>
+  <si>
+    <t>Wahl freigeben (Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Wahl wird freigegeben</t>
+  </si>
+  <si>
+    <t>Wahl auswählen, die noch nicht freigegeben wurde -&gt; Button "Bearbeiten" anklicken -&gt; Button "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl ist freigegeben und ist somit ab dem entsprechenden Datum für die Wähler zugänglich. Es können weitere Wahlen freigegeben/gelöscht werden.</t>
+  </si>
+  <si>
+    <t>Moderator kann keine Wahlen erstellen, vom Wahlleiter erstellte Wahlen sind automatisch freigegeben, und im System gibt es keine nicht freigegebenen Wahlen 
 → nicht durchführbar</t>
   </si>
   <si>
-    <t xml:space="preserve">Wahl ablehnen (Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl wird abgelehnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl auswählen, die noch nicht freigegeben wurde -&gt; Button "Bearbeiten" anklicken -&gt; Button "Löschen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl wurde abgelehnt. Moderator wird darüber informiert. Es können weitere Wahlen freigegeben/gelöscht werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicht durchführbar s. F14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl bearbeiten (Moderator/Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl bearbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Wahl auswählen -&gt; Button "Bearbeiten" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl kann jetzt bearbeitet werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es können nur Datum und Wahltyp bearbeitet werden, keine importierten Dateien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl durchführen (Wähler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl durchführen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Erststimme abgeben -&gt; Zweitstimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wähler hat seine Stimme abgegeben. Zurück zur Startseite und diese Wahl wird dem Wähler nicht mehr angezeigt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kein 2. nachfragen nach RFID Tag, Stimme kann abgegeben werden, Allerdings wird jede weitere Wahl auch mit gewählt kommentiert!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl ungültig durchführen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundestagswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wähler hat ungültige Stimme abgegeben. Zurück zur Startseite und diese Wahl wird dem Wähler nicht mehr angezeigt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kein 2. Nachfragen nach rfid-tag. Kein deutlicher Hinweis auf Stimme ungültig, alles wie bei normalem Stimme abgeben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europawahl durchführen (Wähler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europawahl durchführen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europawahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s. F20</t>
+    <t>Wahl ablehnen (Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Wahl wird abgelehnt</t>
+  </si>
+  <si>
+    <t>Wahl auswählen, die noch nicht freigegeben wurde -&gt; Button "Bearbeiten" anklicken -&gt; Button "Löschen" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl wurde abgelehnt. Moderator wird darüber informiert. Es können weitere Wahlen freigegeben/gelöscht werden.</t>
+  </si>
+  <si>
+    <t>Nicht durchführbar s. F14</t>
+  </si>
+  <si>
+    <t>Wahl bearbeiten (Moderator/Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Wahl bearbeiten</t>
+  </si>
+  <si>
+    <t>Eine Wahl auswählen -&gt; Button "Bearbeiten" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl kann jetzt bearbeitet werden.</t>
+  </si>
+  <si>
+    <t>Es können nur Datum und Wahltyp bearbeitet werden, keine importierten Dateien</t>
+  </si>
+  <si>
+    <t>Bundestagswahl durchführen (Wähler)</t>
+  </si>
+  <si>
+    <t>Bundestagswahl durchführen</t>
+  </si>
+  <si>
+    <t>Bundestagswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Erststimme abgeben -&gt; Zweitstimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Wähler hat seine Stimme abgegeben. Zurück zur Startseite und diese Wahl wird dem Wähler nicht mehr angezeigt.</t>
+  </si>
+  <si>
+    <t>Kein 2. nachfragen nach RFID Tag, Stimme kann abgegeben werden, Allerdings wird jede weitere Wahl auch mit gewählt kommentiert!</t>
+  </si>
+  <si>
+    <t>Bundestagswahl ungültig durchführen</t>
+  </si>
+  <si>
+    <t>Bundestagswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Wähler hat ungültige Stimme abgegeben. Zurück zur Startseite und diese Wahl wird dem Wähler nicht mehr angezeigt.</t>
+  </si>
+  <si>
+    <t>Kein 2. Nachfragen nach rfid-tag. Kein deutlicher Hinweis auf Stimme ungültig, alles wie bei normalem Stimme abgeben</t>
+  </si>
+  <si>
+    <t>Europawahl durchführen (Wähler)</t>
+  </si>
+  <si>
+    <t>Europawahl durchführen</t>
+  </si>
+  <si>
+    <t>Europawahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>s. F20</t>
   </si>
   <si>
     <t xml:space="preserve">Europawahl ungültig durchführen </t>
   </si>
   <si>
-    <t xml:space="preserve">Europawahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.F20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgerentscheid durchführen (Wähler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgerentscheid durchführen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgerentscheid aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+    <t>Europawahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>s.F20</t>
+  </si>
+  <si>
+    <t>Bürgerentscheid durchführen (Wähler)</t>
+  </si>
+  <si>
+    <t>Bürgerentscheid durchführen</t>
+  </si>
+  <si>
+    <t>Bürgerentscheid aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
   </si>
   <si>
     <t xml:space="preserve">Bürgerentscheid ungültig durchführen </t>
   </si>
   <si>
-    <t xml:space="preserve">Bürgerentscheid aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landratswahl durchführen (Wähler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landratswahl durchführen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landratswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+    <t>Bürgerentscheid aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Landratswahl durchführen (Wähler)</t>
+  </si>
+  <si>
+    <t>Landratswahl durchführen</t>
+  </si>
+  <si>
+    <t>Landratswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
   </si>
   <si>
     <t xml:space="preserve">Landratswahl ungültig durchführen </t>
   </si>
   <si>
-    <t xml:space="preserve">Landratswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeisterwahl durchführen (Wähler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeisterwahl durchführen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeisterwahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme mehrfach oder gar nicht abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+    <t>Landratswahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Bürgermeisterwahl durchführen (Wähler)</t>
+  </si>
+  <si>
+    <t>Bürgermeisterwahl durchführen</t>
+  </si>
+  <si>
+    <t>Bürgermeisterwahl aus Liste der verfügbaren Wahlen auswählen -&gt; Stimme mehrfach oder gar nicht abgeben -&gt; Button "Auswahl bestätigen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
   </si>
   <si>
     <t xml:space="preserve">Bürgermeisterwahl ungültig durchführen </t>
   </si>
   <si>
-    <t xml:space="preserve">Bürgermeisterwahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeisterwahl anlegen (Moderator/Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeisterwahl anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderator: Wahl wurde angelegt, nun muss sie vom Wahlleiter freigegeben werden                                                                                                                                               Wahlleiter: Wahl wurde angelegt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundsätzlich möglich, aber erst muss Wahl angelegt werden, bevor Dateien importiert werden können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgermeisterwahl anlegen schlägt fehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl muss erst ohne Listen angelegt werden, 
+    <t>Bürgermeisterwahl aus Liste der verfügbaren Wahlen auswählen -&gt; Button "Stimme ungültig machen" anklicken -&gt; RFID-Tag einscannen -&gt; "Bestätigen" anklicken</t>
+  </si>
+  <si>
+    <t>Bürgermeisterwahl anlegen (Moderator/Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Bürgermeisterwahl anlegen</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Moderator: Wahl wurde angelegt, nun muss sie vom Wahlleiter freigegeben werden                                                                                                                                               Wahlleiter: Wahl wurde angelegt</t>
+  </si>
+  <si>
+    <t>Grundsätzlich möglich, aber erst muss Wahl angelegt werden, bevor Dateien importiert werden können.</t>
+  </si>
+  <si>
+    <t>Bürgermeisterwahl anlegen schlägt fehl</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl muss erst ohne Listen angelegt werden, 
 Fehlermeldung: Bitte Kandidatenliste importieren erscheint, kein weiter möglich</t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl muss erst ohne Listen angelegt werden, 
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl muss erst ohne Listen angelegt werden, 
 Fehlermeldung: Bitte Wählerliste importieren erscheint, kein weiter möglich</t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;Falsche Daten nur Datum möglich. Mit falschem Datum kann Wahl angelegt werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgerentscheid anlegen (Moderator/Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgerentscheid anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s. F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgerentscheid anlegen schlägt fehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Themen wurde nicht importiert".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl muss erst ohne Listen angelegt werden, 
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgermeisterwahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>&gt;Falsche Daten nur Datum möglich. Mit falschem Datum kann Wahl angelegt werden</t>
+  </si>
+  <si>
+    <t>Bürgerentscheid anlegen (Moderator/Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Bürgerentscheid anlegen</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>s. F35</t>
+  </si>
+  <si>
+    <t>Bürgerentscheid anlegen schlägt fehl</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl anlegen ist fehlgeschlagen. Fehlermeldung "Liste der Themen wurde nicht importiert".</t>
+  </si>
+  <si>
+    <t>Wahl muss erst ohne Listen angelegt werden, 
 Fehlermeldung: Bitte Themenliste importieren erscheint, kein weiter möglich</t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler wird nicht importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s.F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europawahl anlegen (Moderator/Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europawahl anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Europawahl -&gt; Liste der Parteien importieren  -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europawahl anlegen schlägt fehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl  Europawahl -&gt; Liste der Parteien wird nicht importiert  -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wahl muss erst ohne Listen angelegt werden, 
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler wird nicht importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Bürgerentscheid -&gt; Liste der Themen importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>s.F38</t>
+  </si>
+  <si>
+    <t>Europawahl anlegen (Moderator/Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Europawahl anlegen</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Europawahl -&gt; Liste der Parteien importieren  -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Europawahl anlegen schlägt fehl</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl  Europawahl -&gt; Liste der Parteien wird nicht importiert  -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Wahl muss erst ohne Listen angelegt werden, 
 Fehlermeldung: Bitte Parteienliste importieren erscheint, kein weiter möglich</t>
   </si>
   <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl  Europawahl -&gt; Liste der Parteien importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Europawahl -&gt; Liste der Parteien importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landratswahl anlegen (Moderator/Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landratswahl anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landratswahl anlegen schlägt fehl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl-&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl  -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl  Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s. F38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung (Wahlleiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung exportieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei einer beendeten Wahl Button "Auswerten" anklicken -&gt; Button "Auswertung exportieren" anklicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Ergebnisse wurden exportiert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kein Exportieren Button vorhanden, weder in der Übersicht noch bei der Auswertung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung überprüfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei einer beendeten Wahl Button "Auswerten" anklicken -&gt; Werte auf Korrektheit prüfen -&gt; Werte korrekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung stimmt und kann exportiert werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Werte sind korrekt, aber kein Export möglich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei einer beendeten Wahl Button "Auswerten" anklicken -&gt; Werte auf Korrektheit prüfen -&gt; Werte nicht korrekt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung stimmt nicht, es wird angezeigt was falsch gelaufen sein könnte. Möglichkeit einer Handauswertung (z.B. durch Ausdruck aus der Datenbank). System nimmt keine Korrektur vor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das ist so nicht ohne weiteres testbar!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backup-System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umsetzung Backupsystem</t>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl  Europawahl -&gt; Liste der Parteien importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Europawahl -&gt; Liste der Parteien importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Landratswahl anlegen (Moderator/Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Landratswahl anlegen</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Landratswahl anlegen schlägt fehl</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl-&gt; Liste der Kandidaten wird nicht importiert -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl  -&gt; Liste der Kandidaten importieren -&gt; Liste der Wähler wird nicht importiert -&gt; Allgemeine Daten der Wahl eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>Menüpunkt zum Anlegen einer neuen Wahl auswählen -&gt; Auswahl Landratswahl  Liste der Kandidaten importieren -&gt; Liste der Wähler importieren -&gt; Allgemeine Daten der Wahl falsch eingeben -&gt; Button "Speichern" anklicken</t>
+  </si>
+  <si>
+    <t>s. F38</t>
+  </si>
+  <si>
+    <t>Auswertung (Wahlleiter)</t>
+  </si>
+  <si>
+    <t>Auswertung exportieren</t>
+  </si>
+  <si>
+    <t>Bei einer beendeten Wahl Button "Auswerten" anklicken -&gt; Button "Auswertung exportieren" anklicken</t>
+  </si>
+  <si>
+    <t>Die Ergebnisse wurden exportiert.</t>
+  </si>
+  <si>
+    <t>kein Exportieren Button vorhanden, weder in der Übersicht noch bei der Auswertung</t>
+  </si>
+  <si>
+    <t>Auswertung überprüfen</t>
+  </si>
+  <si>
+    <t>Bei einer beendeten Wahl Button "Auswerten" anklicken -&gt; Werte auf Korrektheit prüfen -&gt; Werte korrekt</t>
+  </si>
+  <si>
+    <t>Auswertung stimmt und kann exportiert werden.</t>
+  </si>
+  <si>
+    <t>Werte sind korrekt, aber kein Export möglich</t>
+  </si>
+  <si>
+    <t>Bei einer beendeten Wahl Button "Auswerten" anklicken -&gt; Werte auf Korrektheit prüfen -&gt; Werte nicht korrekt</t>
+  </si>
+  <si>
+    <t>Auswertung stimmt nicht, es wird angezeigt was falsch gelaufen sein könnte. Möglichkeit einer Handauswertung (z.B. durch Ausdruck aus der Datenbank). System nimmt keine Korrektur vor.</t>
+  </si>
+  <si>
+    <t>Das ist so nicht ohne weiteres testbar!</t>
+  </si>
+  <si>
+    <t>Backup-System</t>
+  </si>
+  <si>
+    <t>Umsetzung Backupsystem</t>
   </si>
   <si>
     <t xml:space="preserve">Hauptserver sendet alle neue Daten an das Backup-System -&gt; Backup-System prüft Zustand des Hauptservers -&gt; Hauptserver ist erreichbar </t>
   </si>
   <si>
-    <t xml:space="preserve">Alles wie vorher.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausfall Hauptserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauptserver sendet alle neue Daten an das Backup-System -&gt; Backup-System prüft Zustand des Hauptservers -&gt; Hauptserver ist nicht erreichbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backup-System schaltet sich mit der URI des Hauptservers ein.</t>
+    <t>Alles wie vorher.</t>
+  </si>
+  <si>
+    <t>Ausfall Hauptserver</t>
+  </si>
+  <si>
+    <t>Hauptserver sendet alle neue Daten an das Backup-System -&gt; Backup-System prüft Zustand des Hauptservers -&gt; Hauptserver ist nicht erreichbar</t>
+  </si>
+  <si>
+    <t>Backup-System schaltet sich mit der URI des Hauptservers ein.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -575,7 +561,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -583,61 +569,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -696,34 +650,308 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK59"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="E18" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.06882591093117"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="80.1255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="38.2429149797571"/>
+    <col min="1" max="1" width="4" style="1"/>
+    <col min="2" max="2" width="34.7109375" style="1"/>
+    <col min="3" max="3" width="35.28515625" style="1"/>
+    <col min="4" max="4" width="80.140625" style="1"/>
+    <col min="5" max="5" width="81.140625" style="1"/>
+    <col min="6" max="6" width="38.28515625" style="2"/>
+    <col min="7" max="1025" width="38.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,8 +971,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -763,8 +991,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -783,8 +1011,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -800,8 +1028,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -817,15 +1045,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="194.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:8" ht="194.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -850,8 +1078,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="174.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -873,8 +1101,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="130.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -896,8 +1124,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -919,8 +1147,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="72.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -939,8 +1167,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -959,15 +1187,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="68.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -986,8 +1214,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1006,15 +1234,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1033,22 +1261,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1067,8 +1295,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1087,15 +1315,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1114,8 +1342,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1134,15 +1362,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1161,8 +1389,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1181,15 +1409,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1208,8 +1436,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1228,15 +1456,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1255,8 +1483,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1275,15 +1503,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1302,8 +1530,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1322,8 +1550,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1342,8 +1570,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1362,15 +1590,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
-      <c r="E39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1389,8 +1617,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1409,8 +1637,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1429,8 +1657,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1449,15 +1677,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1476,8 +1704,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1496,8 +1724,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1516,8 +1744,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1536,15 +1764,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-      <c r="B49" s="0"/>
-      <c r="C49" s="0"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1563,8 +1791,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>40</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1583,8 +1811,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>41</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1603,8 +1831,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1623,15 +1851,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1650,8 +1878,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1670,8 +1898,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1690,8 +1918,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1710,8 +1938,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="28.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>47</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1734,12 +1962,7 @@
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" display="http://yourchoice.local/mitarbeiter/anmelden"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>